--- a/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4438F6-3C42-4928-9214-8A57DAE2AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4591ED-F041-45DC-9F64-A5D53ACD9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D314B1A-1B72-4198-8EB9-CC42BB899038}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0440126-F54B-498F-89D6-D3BF5AAB8821}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>30,86%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,14%</t>
   </si>
   <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,319 +197,331 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>94,05%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>13,43%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>77,93%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
@@ -518,424 +530,424 @@
     <t>33,24%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
     <t>9,84%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991FAE8B-8E57-4FDC-87AB-7380B81EEC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5F7A72-8DD0-4634-8D94-2BE474849EB5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1787,7 +1799,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1796,13 +1808,13 @@
         <v>25301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -1811,13 +1823,13 @@
         <v>62783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,16 +1841,16 @@
         <v>396</v>
       </c>
       <c r="D11" s="7">
-        <v>413447</v>
+        <v>413446</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>364</v>
@@ -1847,13 +1859,13 @@
         <v>383482</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -1862,13 +1874,13 @@
         <v>796929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1892,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1948,13 @@
         <v>489693</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>395</v>
@@ -1951,13 +1963,13 @@
         <v>402562</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>879</v>
@@ -1966,13 +1978,13 @@
         <v>892255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1999,13 @@
         <v>1965049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2284</v>
@@ -2002,13 +2014,13 @@
         <v>2338375</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4207</v>
@@ -2017,13 +2029,13 @@
         <v>4303424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591EEE5-43F0-4DDB-BCD0-0CBB93A559DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23BDF62-32C3-4136-9A1C-1C4161703908}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2234,13 @@
         <v>323513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
@@ -2237,13 +2249,13 @@
         <v>299858</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>584</v>
@@ -2252,13 +2264,13 @@
         <v>623371</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2285,13 @@
         <v>455661</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>772</v>
@@ -2288,13 +2300,13 @@
         <v>828348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1201</v>
@@ -2303,13 +2315,13 @@
         <v>1284008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2389,13 @@
         <v>351910</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -2392,13 +2404,13 @@
         <v>218348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>534</v>
@@ -2407,13 +2419,13 @@
         <v>570258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>1336368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
@@ -2443,13 +2455,13 @@
         <v>1370865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2539</v>
@@ -2458,13 +2470,13 @@
         <v>2707233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2544,13 @@
         <v>44774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2547,13 +2559,13 @@
         <v>32714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2562,13 +2574,13 @@
         <v>77488</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>397360</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>352</v>
@@ -2598,13 +2610,13 @@
         <v>391009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>714</v>
@@ -2613,13 +2625,13 @@
         <v>788369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2699,13 @@
         <v>720197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -2702,13 +2714,13 @@
         <v>550920</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1187</v>
@@ -2717,13 +2729,13 @@
         <v>1271117</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2750,13 @@
         <v>2189389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2397</v>
@@ -2753,13 +2765,13 @@
         <v>2590222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4454</v>
@@ -2768,13 +2780,13 @@
         <v>4779611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE47C585-7BCF-4722-8EA7-FDD18522723E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD073721-B597-4C91-9DCA-02508C3F0B56}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2985,13 @@
         <v>152060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -2988,13 +3000,13 @@
         <v>138682</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>272</v>
@@ -3003,13 +3015,13 @@
         <v>290743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3036,13 @@
         <v>305359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>459</v>
@@ -3039,13 +3051,13 @@
         <v>500192</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -3054,13 +3066,13 @@
         <v>805551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3140,13 @@
         <v>276328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>184</v>
@@ -3143,13 +3155,13 @@
         <v>195148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>445</v>
@@ -3158,13 +3170,13 @@
         <v>471476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3191,13 @@
         <v>1420277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1461</v>
@@ -3194,13 +3206,13 @@
         <v>1512476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2799</v>
@@ -3209,13 +3221,13 @@
         <v>2932754</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3295,13 @@
         <v>43360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3298,13 +3310,13 @@
         <v>39514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -3313,13 +3325,13 @@
         <v>82874</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3346,13 @@
         <v>455884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>450</v>
@@ -3349,13 +3361,13 @@
         <v>468806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -3364,13 +3376,13 @@
         <v>924690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3450,13 @@
         <v>471749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -3453,13 +3465,13 @@
         <v>373344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>795</v>
@@ -3468,13 +3480,13 @@
         <v>845093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3501,13 @@
         <v>2181520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2370</v>
@@ -3504,13 +3516,13 @@
         <v>2481474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>4439</v>
@@ -3519,13 +3531,13 @@
         <v>4662994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41C765D-2F0E-428F-9DDD-1D4F375B6F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991C7B58-2FBC-43E6-973F-576B7D29CB77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3736,13 @@
         <v>176787</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>340</v>
@@ -3739,13 +3751,13 @@
         <v>185505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>581</v>
@@ -3754,13 +3766,13 @@
         <v>362293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3787,13 @@
         <v>332624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1030</v>
@@ -3790,13 +3802,13 @@
         <v>613219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1436</v>
@@ -3805,13 +3817,13 @@
         <v>945842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3891,13 @@
         <v>282636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -3894,13 +3906,13 @@
         <v>192106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
@@ -3909,13 +3921,13 @@
         <v>474742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3942,13 @@
         <v>1813984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2553</v>
@@ -3945,13 +3957,13 @@
         <v>2014048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>4166</v>
@@ -3960,13 +3972,13 @@
         <v>3828033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4046,13 @@
         <v>53922</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4049,13 +4061,13 @@
         <v>33428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4064,13 +4076,13 @@
         <v>87350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4097,13 @@
         <v>607379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4100,13 +4112,13 @@
         <v>670633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1549</v>
@@ -4115,13 +4127,13 @@
         <v>1278012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4201,13 @@
         <v>513345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -4204,13 +4216,13 @@
         <v>411040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1296</v>
@@ -4219,13 +4231,13 @@
         <v>924385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4252,13 @@
         <v>2753987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4524</v>
@@ -4255,13 +4267,13 @@
         <v>3297900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7151</v>
@@ -4270,13 +4282,13 @@
         <v>6051887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E4591ED-F041-45DC-9F64-A5D53ACD9E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239EAEB3-DC2D-45E4-B51C-F3110C12FB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0440126-F54B-498F-89D6-D3BF5AAB8821}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1164896-2DE8-4D90-8A6A-8AE16CC033E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>30,86%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,14%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>85,16%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -314,31 +314,31 @@
     <t>37,9%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>55,11%</t>
   </si>
   <si>
     <t>62,1%</t>
@@ -347,136 +347,130 @@
     <t>73,42%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>18,95%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>81,05%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>17,54%</t>
@@ -485,31 +479,31 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>19,06%</t>
   </si>
   <si>
     <t>21,01%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>80,98%</t>
+    <t>80,94%</t>
   </si>
   <si>
     <t>83,8%</t>
@@ -518,181 +512,193 @@
     <t>78,99%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2015 (Tasa respuesta: 80,01%)</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>13,16%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>86,84%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>6,21%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>93,79%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>15,34%</t>
@@ -701,31 +707,31 @@
     <t>14,38%</t>
   </si>
   <si>
-    <t>16,37%</t>
+    <t>16,44%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>83,63%</t>
+    <t>83,56%</t>
   </si>
   <si>
     <t>85,62%</t>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5F7A72-8DD0-4634-8D94-2BE474849EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D661E49D-A3A4-44E4-82A1-EC197512CCC1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1841,7 +1847,7 @@
         <v>396</v>
       </c>
       <c r="D11" s="7">
-        <v>413446</v>
+        <v>413447</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1892,7 +1898,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23BDF62-32C3-4136-9A1C-1C4161703908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7FD91E-55D2-4F16-AA8B-C091969FA556}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,10 +2428,10 @@
         <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2446,13 @@
         <v>1336368</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
@@ -2455,13 +2461,13 @@
         <v>1370865</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2539</v>
@@ -2470,13 +2476,13 @@
         <v>2707233</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2550,13 @@
         <v>44774</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2559,13 +2565,13 @@
         <v>32714</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -2574,13 +2580,13 @@
         <v>77488</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2601,13 @@
         <v>397360</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>352</v>
@@ -2610,13 +2616,13 @@
         <v>391009</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>714</v>
@@ -2625,13 +2631,13 @@
         <v>788369</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2705,13 @@
         <v>720197</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>513</v>
@@ -2714,13 +2720,13 @@
         <v>550920</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1187</v>
@@ -2729,13 +2735,13 @@
         <v>1271117</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2756,13 @@
         <v>2189389</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2397</v>
@@ -2765,13 +2771,13 @@
         <v>2590222</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4454</v>
@@ -2780,13 +2786,13 @@
         <v>4779611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD073721-B597-4C91-9DCA-02508C3F0B56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDED8B2-E4BE-4202-99DE-1CC924B2F669}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2991,13 @@
         <v>152060</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3000,13 +3006,13 @@
         <v>138682</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>272</v>
@@ -3015,13 +3021,13 @@
         <v>290743</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3042,13 @@
         <v>305359</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>459</v>
@@ -3051,13 +3057,13 @@
         <v>500192</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -3066,13 +3072,13 @@
         <v>805551</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3146,13 @@
         <v>276328</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>184</v>
@@ -3155,13 +3161,13 @@
         <v>195148</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>445</v>
@@ -3170,13 +3176,13 @@
         <v>471476</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3197,13 @@
         <v>1420277</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>1461</v>
@@ -3206,13 +3212,13 @@
         <v>1512476</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>2799</v>
@@ -3301,7 +3307,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3310,13 +3316,13 @@
         <v>39514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -3325,13 +3331,13 @@
         <v>82874</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3352,13 @@
         <v>455884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>450</v>
@@ -3361,13 +3367,13 @@
         <v>468806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -3376,13 +3382,13 @@
         <v>924690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3456,13 @@
         <v>471749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -3465,13 +3471,13 @@
         <v>373344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>795</v>
@@ -3480,13 +3486,13 @@
         <v>845093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>2181520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2370</v>
@@ -3516,13 +3522,13 @@
         <v>2481474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4439</v>
@@ -3531,13 +3537,13 @@
         <v>4662994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991C7B58-2FBC-43E6-973F-576B7D29CB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F3F75-3534-4C21-B22E-2CA75ECCC322}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3742,13 @@
         <v>176787</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>340</v>
@@ -3751,13 +3757,13 @@
         <v>185505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>581</v>
@@ -3766,13 +3772,13 @@
         <v>362293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3793,13 @@
         <v>332624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>1030</v>
@@ -3802,13 +3808,13 @@
         <v>613219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1436</v>
@@ -3817,13 +3823,13 @@
         <v>945842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3897,13 @@
         <v>282636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -3906,13 +3912,13 @@
         <v>192106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
@@ -3921,13 +3927,13 @@
         <v>474742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3948,13 @@
         <v>1813984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2553</v>
@@ -3957,13 +3963,13 @@
         <v>2014048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>4166</v>
@@ -3972,13 +3978,13 @@
         <v>3828033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4052,13 @@
         <v>53922</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4061,13 +4067,13 @@
         <v>33428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4076,13 +4082,13 @@
         <v>87350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4103,13 @@
         <v>607379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4112,13 +4118,13 @@
         <v>670633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1549</v>
@@ -4127,13 +4133,13 @@
         <v>1278012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4207,13 @@
         <v>513345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -4216,13 +4222,13 @@
         <v>411040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>1296</v>
@@ -4231,13 +4237,13 @@
         <v>924385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>2753987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>4524</v>
@@ -4267,13 +4273,13 @@
         <v>3297900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>7151</v>
@@ -4282,13 +4288,13 @@
         <v>6051887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239EAEB3-DC2D-45E4-B51C-F3110C12FB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB4183D-8731-425B-B942-12D11907DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1164896-2DE8-4D90-8A6A-8AE16CC033E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6835B4F4-3B66-4A67-97B5-4BAE8B8F4646}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>30,86%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>69,14%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>13,57%</t>
   </si>
   <si>
     <t>16,31%</t>
@@ -167,19 +167,19 @@
     <t>81,78%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>85,16%</t>
@@ -188,7 +188,7 @@
     <t>83,69%</t>
   </si>
   <si>
-    <t>86,4%</t>
+    <t>86,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,103 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>5,95%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>94,05%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +305,211 @@
     <t>41,52%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>26,58%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
   </si>
   <si>
     <t>73,42%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>18,91%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>23,03%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>78,99%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>77,93%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2016 (Tasa respuesta: 80,01%)</t>
@@ -524,217 +518,205 @@
     <t>33,24%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>11,43%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>88,57%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>8,23%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>93,43%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>19,28%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
+    <t>80,72%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>84,66%</t>
   </si>
   <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
@@ -743,217 +725,217 @@
     <t>34,7%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>23,23%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>27,7%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>76,77%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>91,29%</t>
   </si>
   <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D661E49D-A3A4-44E4-82A1-EC197512CCC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B0BCA-C212-40A5-955D-F8FC7A560FFF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,7 +1787,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -1814,13 +1796,13 @@
         <v>25301</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>58</v>
@@ -1829,13 +1811,13 @@
         <v>62783</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,13 +1832,13 @@
         <v>413447</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>364</v>
@@ -1865,13 +1847,13 @@
         <v>383482</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -1880,13 +1862,13 @@
         <v>796929</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1936,13 @@
         <v>489693</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>395</v>
@@ -1969,13 +1951,13 @@
         <v>402562</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>879</v>
@@ -1984,13 +1966,13 @@
         <v>892255</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +1987,13 @@
         <v>1965049</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>2284</v>
@@ -2020,13 +2002,13 @@
         <v>2338375</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>4207</v>
@@ -2035,13 +2017,13 @@
         <v>4303424</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7FD91E-55D2-4F16-AA8B-C091969FA556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FCA43-6DC0-4B12-867F-EB34FD4735A9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2240,13 +2222,13 @@
         <v>323513</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>280</v>
@@ -2255,13 +2237,13 @@
         <v>299858</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>584</v>
@@ -2270,13 +2252,13 @@
         <v>623371</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,13 +2273,13 @@
         <v>455661</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>772</v>
@@ -2306,13 +2288,13 @@
         <v>828348</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1201</v>
@@ -2321,13 +2303,13 @@
         <v>1284008</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,13 +2377,13 @@
         <v>351910</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>203</v>
@@ -2410,13 +2392,13 @@
         <v>218348</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>534</v>
@@ -2425,13 +2407,13 @@
         <v>570258</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,13 +2428,13 @@
         <v>1336368</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>1273</v>
@@ -2461,13 +2443,13 @@
         <v>1370865</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>2539</v>
@@ -2476,13 +2458,13 @@
         <v>2707233</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,10 +2720,10 @@
         <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2738,13 @@
         <v>2189389</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2397</v>
@@ -2771,13 +2753,13 @@
         <v>2590222</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>4454</v>
@@ -2786,13 +2768,13 @@
         <v>4779611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDED8B2-E4BE-4202-99DE-1CC924B2F669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEE636F-A364-4699-9C1E-181CB5086983}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2973,13 @@
         <v>152060</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -3006,13 +2988,13 @@
         <v>138682</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>272</v>
@@ -3021,13 +3003,13 @@
         <v>290743</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3024,13 @@
         <v>305359</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>459</v>
@@ -3057,13 +3039,13 @@
         <v>500192</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>771</v>
@@ -3072,13 +3054,13 @@
         <v>805551</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3128,13 @@
         <v>276328</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>184</v>
@@ -3161,13 +3143,13 @@
         <v>195148</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>445</v>
@@ -3176,13 +3158,13 @@
         <v>471476</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3179,13 @@
         <v>1420277</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1461</v>
@@ -3212,13 +3194,13 @@
         <v>1512476</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>2799</v>
@@ -3227,13 +3209,13 @@
         <v>2932754</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3283,13 @@
         <v>43360</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -3316,13 +3298,13 @@
         <v>39514</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -3331,13 +3313,13 @@
         <v>82874</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>455884</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>450</v>
@@ -3367,13 +3349,13 @@
         <v>468806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>869</v>
@@ -3382,13 +3364,13 @@
         <v>924690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3438,13 @@
         <v>471749</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>345</v>
@@ -3471,13 +3453,13 @@
         <v>373344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>795</v>
@@ -3486,13 +3468,13 @@
         <v>845093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3489,13 @@
         <v>2181520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>2370</v>
@@ -3522,13 +3504,13 @@
         <v>2481474</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>4439</v>
@@ -3537,13 +3519,13 @@
         <v>4662994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657F3F75-3534-4C21-B22E-2CA75ECCC322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7B9FC-1438-4D98-A834-E65006DEE931}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3724,13 @@
         <v>176787</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>340</v>
@@ -3757,13 +3739,13 @@
         <v>185505</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>581</v>
@@ -3772,13 +3754,13 @@
         <v>362293</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3775,13 @@
         <v>332624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1030</v>
@@ -3808,13 +3790,13 @@
         <v>613219</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1436</v>
@@ -3823,13 +3805,13 @@
         <v>945842</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3879,13 @@
         <v>282636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -3912,13 +3894,13 @@
         <v>192106</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>606</v>
@@ -3927,13 +3909,13 @@
         <v>474742</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>1813984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2553</v>
@@ -3963,13 +3945,13 @@
         <v>2014048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4166</v>
@@ -3978,13 +3960,13 @@
         <v>3828033</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>53922</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4067,13 +4049,13 @@
         <v>33428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4082,13 +4064,13 @@
         <v>87350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>607379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4118,13 +4100,13 @@
         <v>670633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1549</v>
@@ -4133,13 +4115,13 @@
         <v>1278012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>513345</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>683</v>
@@ -4222,13 +4204,13 @@
         <v>411040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1296</v>
@@ -4237,13 +4219,13 @@
         <v>924385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>2753987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4524</v>
@@ -4273,13 +4255,13 @@
         <v>3297900</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>7151</v>
@@ -4288,13 +4270,13 @@
         <v>6051887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB4183D-8731-425B-B942-12D11907DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE6D7AB-098C-4B65-BF7B-AA2BD076560D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6835B4F4-3B66-4A67-97B5-4BAE8B8F4646}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DC317E25-07A6-4D81-A59A-9C85CB78088F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -722,220 +722,220 @@
     <t>Población según si el motivo por su última visita al dentista fue por la extracción de algún diente o muela en 2023 (Tasa respuesta: 96,87%)</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B0BCA-C212-40A5-955D-F8FC7A560FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C9AA0-F9C5-44CF-AEFD-A0CABB6246C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712FCA43-6DC0-4B12-867F-EB34FD4735A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC08653-A882-4E9F-A97E-A6937D8A23A0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEE636F-A364-4699-9C1E-181CB5086983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E50EF34-11F8-48B5-A7B3-1013991BC3B3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3000,7 +3000,7 @@
         <v>272</v>
       </c>
       <c r="N4" s="7">
-        <v>290743</v>
+        <v>290742</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>164</v>
@@ -3102,7 +3102,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3206,7 +3206,7 @@
         <v>2799</v>
       </c>
       <c r="N8" s="7">
-        <v>2932754</v>
+        <v>2932753</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>191</v>
@@ -3257,7 +3257,7 @@
         <v>3244</v>
       </c>
       <c r="N9" s="7">
-        <v>3404230</v>
+        <v>3404229</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3600,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F7B9FC-1438-4D98-A834-E65006DEE931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F912176-8648-447F-80CD-9F31B9D57864}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3721,7 @@
         <v>241</v>
       </c>
       <c r="D4" s="7">
-        <v>176787</v>
+        <v>164796</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3736,7 +3736,7 @@
         <v>340</v>
       </c>
       <c r="I4" s="7">
-        <v>185505</v>
+        <v>169076</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3751,7 +3751,7 @@
         <v>581</v>
       </c>
       <c r="N4" s="7">
-        <v>362293</v>
+        <v>333872</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3772,7 +3772,7 @@
         <v>406</v>
       </c>
       <c r="D5" s="7">
-        <v>332624</v>
+        <v>318549</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3787,7 +3787,7 @@
         <v>1030</v>
       </c>
       <c r="I5" s="7">
-        <v>613219</v>
+        <v>552540</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3802,7 +3802,7 @@
         <v>1436</v>
       </c>
       <c r="N5" s="7">
-        <v>945842</v>
+        <v>871089</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3823,7 +3823,7 @@
         <v>647</v>
       </c>
       <c r="D6" s="7">
-        <v>509411</v>
+        <v>483345</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3838,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3853,7 @@
         <v>2017</v>
       </c>
       <c r="N6" s="7">
-        <v>1308135</v>
+        <v>1204961</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,7 +3876,7 @@
         <v>310</v>
       </c>
       <c r="D7" s="7">
-        <v>282636</v>
+        <v>268600</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3891,7 +3891,7 @@
         <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>192106</v>
+        <v>175652</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3906,7 +3906,7 @@
         <v>606</v>
       </c>
       <c r="N7" s="7">
-        <v>474742</v>
+        <v>444252</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3927,7 +3927,7 @@
         <v>1613</v>
       </c>
       <c r="D8" s="7">
-        <v>1813984</v>
+        <v>1961937</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
@@ -3942,7 +3942,7 @@
         <v>2553</v>
       </c>
       <c r="I8" s="7">
-        <v>2014048</v>
+        <v>2022254</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>257</v>
@@ -3957,7 +3957,7 @@
         <v>4166</v>
       </c>
       <c r="N8" s="7">
-        <v>3828033</v>
+        <v>3984190</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>260</v>
@@ -3978,7 +3978,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3993,7 @@
         <v>2849</v>
       </c>
       <c r="I9" s="7">
-        <v>2206154</v>
+        <v>2197906</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4008,7 @@
         <v>4772</v>
       </c>
       <c r="N9" s="7">
-        <v>4302775</v>
+        <v>4428442</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,7 +4031,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>53922</v>
+        <v>50397</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4046,7 +4046,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>33428</v>
+        <v>31084</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4061,7 +4061,7 @@
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>87350</v>
+        <v>81481</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4082,7 +4082,7 @@
         <v>608</v>
       </c>
       <c r="D11" s="7">
-        <v>607379</v>
+        <v>580919</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4097,7 +4097,7 @@
         <v>941</v>
       </c>
       <c r="I11" s="7">
-        <v>670633</v>
+        <v>620527</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4112,7 +4112,7 @@
         <v>1549</v>
       </c>
       <c r="N11" s="7">
-        <v>1278012</v>
+        <v>1201446</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4133,7 +4133,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4148,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4163,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,7 +4186,7 @@
         <v>613</v>
       </c>
       <c r="D13" s="7">
-        <v>513345</v>
+        <v>483793</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4201,7 +4201,7 @@
         <v>683</v>
       </c>
       <c r="I13" s="7">
-        <v>411040</v>
+        <v>375812</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>284</v>
@@ -4216,7 +4216,7 @@
         <v>1296</v>
       </c>
       <c r="N13" s="7">
-        <v>924385</v>
+        <v>859605</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>287</v>
@@ -4237,7 +4237,7 @@
         <v>2627</v>
       </c>
       <c r="D14" s="7">
-        <v>2753987</v>
+        <v>2861404</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>290</v>
@@ -4252,7 +4252,7 @@
         <v>4524</v>
       </c>
       <c r="I14" s="7">
-        <v>3297900</v>
+        <v>3195321</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>293</v>
@@ -4267,7 +4267,7 @@
         <v>7151</v>
       </c>
       <c r="N14" s="7">
-        <v>6051887</v>
+        <v>6056725</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
@@ -4288,7 +4288,7 @@
         <v>3240</v>
       </c>
       <c r="D15" s="7">
-        <v>3267332</v>
+        <v>3345197</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4303,7 @@
         <v>5207</v>
       </c>
       <c r="I15" s="7">
-        <v>3708940</v>
+        <v>3571133</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4318,7 @@
         <v>8447</v>
       </c>
       <c r="N15" s="7">
-        <v>6976272</v>
+        <v>6916330</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
